--- a/server/branch/protected/models/excel/example/河道模板.xlsx
+++ b/server/branch/protected/models/excel/example/河道模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/shuili/shuili/server/branch/protected/models/excel/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>现状</t>
   </si>
@@ -66,75 +66,6 @@
     <t>规划</t>
     <rPh sb="0" eb="1">
       <t>gui'hua</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长江</t>
-    <rPh sb="0" eb="1">
-      <t>chang'jiang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家</t>
-    <rPh sb="0" eb="1">
-      <t>guo'jia</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>青藏高原</t>
-    <rPh sb="0" eb="1">
-      <t>qing'zng'gao'y</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <rPh sb="0" eb="1">
-      <t>shang'hai</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国</t>
-    <rPh sb="0" eb="1">
-      <t>zhong'guo</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国长江</t>
-    <rPh sb="0" eb="1">
-      <t>zhong'guo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chang'jiang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄河</t>
-    <rPh sb="0" eb="1">
-      <t>huang'he</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>东营</t>
-    <rPh sb="0" eb="1">
-      <t>dong'ying</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国黄河</t>
-    <rPh sb="0" eb="1">
-      <t>zhon'guo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>huang'he</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -205,10 +136,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -486,174 +417,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>10000</v>
-      </c>
-      <c r="F3">
-        <v>2000</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>200</v>
-      </c>
-      <c r="I3">
-        <v>200000</v>
-      </c>
-      <c r="J3">
-        <v>3000</v>
-      </c>
-      <c r="K3">
-        <v>200</v>
-      </c>
-      <c r="L3">
-        <v>300</v>
-      </c>
-      <c r="M3">
-        <v>300000</v>
-      </c>
-      <c r="N3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>20000</v>
-      </c>
-      <c r="F4">
-        <v>3000</v>
-      </c>
-      <c r="G4">
-        <v>2200</v>
-      </c>
-      <c r="H4">
-        <v>333</v>
-      </c>
-      <c r="I4">
-        <v>333333</v>
-      </c>
-      <c r="J4">
-        <v>444</v>
-      </c>
-      <c r="K4">
-        <v>44</v>
-      </c>
-      <c r="L4">
-        <v>3232</v>
-      </c>
-      <c r="M4">
-        <v>323324</v>
-      </c>
-      <c r="N4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/server/branch/protected/models/excel/example/河道模板.xlsx
+++ b/server/branch/protected/models/excel/example/河道模板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,57 +24,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
-  <si>
-    <t>现状</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>河流名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>河流等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>起点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>讫点</t>
-  </si>
-  <si>
-    <t>河长(m)</t>
-  </si>
-  <si>
-    <t>河宽(m)</t>
-  </si>
-  <si>
-    <t>河底高程(m)</t>
-  </si>
-  <si>
-    <t>堤坝高程(m)</t>
-  </si>
-  <si>
-    <t>管理范围</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>河长（m）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>现状情况</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划情况</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理范围
+(m)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>水域面积（万m3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>河宽
+（m）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>河底高程（m）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>堤顶高程（m）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水域面积
+（万㎡）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水域容积
+（万m3）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>河宽（m）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>河道模板</t>
     <rPh sb="0" eb="1">
-      <t>gui'hua</t>
+      <t>he'dao'mo'ban</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <rPh sb="2" eb="3">
+      <t>mo'ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,19 +118,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,11 +193,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,88 +520,619 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
+    <row r="1" spans="1:17" ht="19" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="N3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>